--- a/WarningMessages.xlsx
+++ b/WarningMessages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\eclipse_workspace\varun_hcl_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE43EE4-5D9C-45EE-B807-0DD45A299D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66383EA2-32B4-4FB9-9F1D-D90CE793F5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,27 +25,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>TestName</t>
-  </si>
-  <si>
-    <t>Num1</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+  <si>
+    <t>Sign up successful.</t>
+  </si>
+  <si>
+    <t>SignUp Success</t>
+  </si>
+  <si>
+    <t>This user already exist.</t>
+  </si>
+  <si>
+    <t>SignUp User Exists</t>
+  </si>
+  <si>
+    <t>SignIn Wrong Password</t>
+  </si>
+  <si>
+    <t>User does not exist.</t>
+  </si>
+  <si>
+    <t>SignIn User Not Exists</t>
+  </si>
+  <si>
+    <t>Please fill out Username and Password.</t>
+  </si>
+  <si>
+    <t>SignIn Missing Username_Password</t>
+  </si>
+  <si>
+    <t>AddToCart_ProductAdded</t>
+  </si>
+  <si>
+    <t>Product added.</t>
+  </si>
+  <si>
+    <t>Warning Messages</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -364,67 +382,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.4</v>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/WarningMessages.xlsx
+++ b/WarningMessages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\eclipse_workspace\varun_hcl_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66383EA2-32B4-4FB9-9F1D-D90CE793F5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87411A4-C291-4C05-9A55-45E6C01869D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,30 +30,15 @@
     <t>Sign up successful.</t>
   </si>
   <si>
-    <t>SignUp Success</t>
-  </si>
-  <si>
     <t>This user already exist.</t>
   </si>
   <si>
-    <t>SignUp User Exists</t>
-  </si>
-  <si>
-    <t>SignIn Wrong Password</t>
-  </si>
-  <si>
     <t>User does not exist.</t>
   </si>
   <si>
-    <t>SignIn User Not Exists</t>
-  </si>
-  <si>
     <t>Please fill out Username and Password.</t>
   </si>
   <si>
-    <t>SignIn Missing Username_Password</t>
-  </si>
-  <si>
     <t>AddToCart_ProductAdded</t>
   </si>
   <si>
@@ -64,6 +49,21 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>SignUp_Success</t>
+  </si>
+  <si>
+    <t>SignUp_User_Exists</t>
+  </si>
+  <si>
+    <t>SignIn_Wrong_Password</t>
+  </si>
+  <si>
+    <t>SignIn_User_Not_Exists</t>
+  </si>
+  <si>
+    <t>SignIn_Missing_Username_Password</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -396,15 +396,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -412,42 +412,42 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/WarningMessages.xlsx
+++ b/WarningMessages.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\eclipse_workspace\varun_hcl_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87411A4-C291-4C05-9A55-45E6C01869D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57CCA1E-F825-420E-BA08-A3A2738C61B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="1740" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="warningMessages" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Sign up successful.</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>SignIn_Missing_Username_Password</t>
+  </si>
+  <si>
+    <t>Wrong password.</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -423,7 +426,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
